--- a/biology/Botanique/Meum/Meum.xlsx
+++ b/biology/Botanique/Meum/Meum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meum (les méums ou méons), est un genre de plantes herbacées de la famille des Apiaceae qui comprend un nombre variable d'espèces selon les auteurs, dont une seule en Europe, Meum athamanticum. Les racines de ce Fenouil des Alpes étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meum (les méums ou méons), est un genre de plantes herbacées de la famille des Apiaceae qui comprend un nombre variable d'espèces selon les auteurs, dont une seule en Europe, Meum athamanticum. Les racines de ce Fenouil des Alpes étaient un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
 Répartition du genre : Europe et Afrique du Nord.
 </t>
         </is>
@@ -512,18 +524,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (18 juin 2014)[2] et The Plant List            (18 juin 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (18 juin 2014) et The Plant List            (18 juin 2014) :
 Meum athamanticum Jacq.
-Selon Tropicos                                           (18 juin 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 Meum alatum Baill.
 Meum athamanticum Jacq.
 Meum foeniculum (L.) Spreng.
 Meum gayoides Regel &amp; Schmalh.
 Meum nevadense Boiss.
 Meum nodiflorum (L.) Baill.
-Selon Catalogue of Life                                   (18 juin 2014)[5] :
+Selon Catalogue of Life                                   (18 juin 2014) :
 Meum adonidifolium
 Meum alatum
 Meum anethifolium
